--- a/Assets/PSW/Excel/Text.xlsx
+++ b/Assets/PSW/Excel/Text.xlsx
@@ -363,7 +363,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
